--- a/biology/Botanique/Heloniopsis/Heloniopsis.xlsx
+++ b/biology/Botanique/Heloniopsis/Heloniopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Heloniopsis est un genre de plantes de la famille des Melanthiaceae, décrit pour la première fois comme genre en 1859[1],[2]. Il est originaire d'Asie de l'Est (Japon, Taïwan, Corée, île de Sakhaline en Russie)[3],[4].
-Espèces[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Heloniopsis est un genre de plantes de la famille des Melanthiaceae, décrit pour la première fois comme genre en 1859,. Il est originaire d'Asie de l'Est (Japon, Taïwan, Corée, île de Sakhaline en Russie),.
+Espèces
 Heloniopsis kawanoi (Koidz.) Honda – Nansei-shoto
 Heloniopsis koreana Fuse, N.S.Lee &amp; M.N.Tamura – Corée
 Heloniopsis leucantha (Koidz.) Honda – Nansei-shoto
